--- a/Excel/Flock Metadata.xlsx
+++ b/Excel/Flock Metadata.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="78">
   <si>
     <t>INTEGRATOR_FLOCK_ID</t>
   </si>

--- a/Excel/Flock Metadata.xlsx
+++ b/Excel/Flock Metadata.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="81">
   <si>
     <t>INTEGRATOR_FLOCK_ID</t>
   </si>
@@ -265,6 +265,15 @@
   </si>
   <si>
     <t>2021-05-25</t>
+  </si>
+  <si>
+    <t>2021-06-05</t>
+  </si>
+  <si>
+    <t>6/06/2021</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
 </sst>
 </file>
@@ -872,8 +881,8 @@
       <c r="V2" t="s">
         <v>74</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>42</v>
+      <c r="W2" t="s">
+        <v>74</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>43</v>

--- a/Excel/Flock Metadata.xlsx
+++ b/Excel/Flock Metadata.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="81">
   <si>
     <t>INTEGRATOR_FLOCK_ID</t>
   </si>

--- a/Excel/Flock Metadata.xlsx
+++ b/Excel/Flock Metadata.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="81">
   <si>
     <t>INTEGRATOR_FLOCK_ID</t>
   </si>

--- a/Excel/Flock Metadata.xlsx
+++ b/Excel/Flock Metadata.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="83">
   <si>
     <t>INTEGRATOR_FLOCK_ID</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>50</t>
+  </si>
+  <si>
+    <t>1001023</t>
+  </si>
+  <si>
+    <t>1001037</t>
   </si>
 </sst>
 </file>

--- a/Excel/Flock Metadata.xlsx
+++ b/Excel/Flock Metadata.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="83">
   <si>
     <t>INTEGRATOR_FLOCK_ID</t>
   </si>

--- a/Excel/Flock Metadata.xlsx
+++ b/Excel/Flock Metadata.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="83">
   <si>
     <t>INTEGRATOR_FLOCK_ID</t>
   </si>

--- a/Excel/Flock Metadata.xlsx
+++ b/Excel/Flock Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF0D30B-B171-416E-A8C2-AFEAB6CFEE04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA98430-422A-46F3-832B-6480284E6EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="75">
   <si>
     <t>INTEGRATOR_FLOCK_ID</t>
   </si>
@@ -147,21 +147,9 @@
     <t>OUT_TIME_DAYS</t>
   </si>
   <si>
-    <t>12720011</t>
-  </si>
-  <si>
     <t>123</t>
   </si>
   <si>
-    <t>1.00654564</t>
-  </si>
-  <si>
-    <t>1.0075456456</t>
-  </si>
-  <si>
-    <t>1.0085456456</t>
-  </si>
-  <si>
     <t>1.009545645</t>
   </si>
   <si>
@@ -210,15 +198,42 @@
     <t>LRLBL0227-1033011</t>
   </si>
   <si>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2021-05-25</t>
+  </si>
+  <si>
+    <t>1001160</t>
+  </si>
+  <si>
+    <t>1001186</t>
+  </si>
+  <si>
+    <t>BIRD_SIZE</t>
+  </si>
+  <si>
+    <t>6/06/2021</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>1033011</t>
-  </si>
-  <si>
-    <t>5/31/2021</t>
-  </si>
-  <si>
     <t>1001001</t>
   </si>
   <si>
@@ -231,55 +246,16 @@
     <t>1001159</t>
   </si>
   <si>
-    <t>1001066</t>
-  </si>
-  <si>
-    <t>1001078</t>
-  </si>
-  <si>
-    <t>2021-06-10</t>
+    <t>1001188</t>
   </si>
   <si>
     <t>2021-06-01</t>
   </si>
   <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>6/11/2021</t>
-  </si>
-  <si>
-    <t>6/09/2021</t>
-  </si>
-  <si>
-    <t>2021-05-25</t>
-  </si>
-  <si>
     <t>2021-06-05</t>
   </si>
   <si>
-    <t>6/06/2021</t>
-  </si>
-  <si>
     <t>50</t>
-  </si>
-  <si>
-    <t>1001023</t>
-  </si>
-  <si>
-    <t>1001037</t>
   </si>
 </sst>
 </file>
@@ -287,16 +263,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -322,10 +292,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -333,7 +302,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -709,11 +677,12 @@
     <col min="34" max="34" customWidth="true" width="14.796875" collapsed="true"/>
     <col min="35" max="35" customWidth="true" width="7.796875" collapsed="true"/>
     <col min="36" max="36" customWidth="true" width="17.796875" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="25.796875" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="27.3984375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="9.796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -828,112 +797,118 @@
       <c r="AL1" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="R2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>73</v>
-      </c>
-      <c r="R2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U2" t="s">
-        <v>72</v>
-      </c>
-      <c r="V2" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" t="s">
-        <v>74</v>
-      </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AC2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AD2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AE2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AF2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AG2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AH2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AI2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AK2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AL2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>57</v>
+      <c r="AM2" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Flock Metadata.xlsx
+++ b/Excel/Flock Metadata.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="76">
   <si>
     <t>INTEGRATOR_FLOCK_ID</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>50</t>
+  </si>
+  <si>
+    <t>2021-12-12</t>
   </si>
 </sst>
 </file>
@@ -812,7 +815,7 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>

--- a/Excel/Flock Metadata.xlsx
+++ b/Excel/Flock Metadata.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="76">
   <si>
     <t>INTEGRATOR_FLOCK_ID</t>
   </si>
@@ -815,7 +815,7 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>

--- a/Excel/Flock Metadata.xlsx
+++ b/Excel/Flock Metadata.xlsx
@@ -1,54 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA98430-422A-46F3-832B-6480284E6EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEADF28E-89AC-49A4-BA98-C163A82BE18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="540" windowWidth="18924" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
+  <si>
+    <t>FARM_SITE_ID</t>
+  </si>
+  <si>
+    <t>PLACEMENT_DATE</t>
+  </si>
   <si>
     <t>INTEGRATOR_FLOCK_ID</t>
   </si>
   <si>
-    <t>SITE_ID</t>
-  </si>
-  <si>
-    <t>HATCH_DATE</t>
-  </si>
-  <si>
-    <t>PLACEMENT_DATE</t>
+    <t>DOWNGRADE_PAWS_PERC</t>
   </si>
   <si>
     <t>NUM_BIRDS_PLACED</t>
   </si>
   <si>
-    <t>BIRD_TYPE</t>
+    <t>USDA_PLANT_ID</t>
   </si>
   <si>
     <t>BIRD_SEX</t>
@@ -90,10 +79,10 @@
     <t>NUM_BIRDS_CONDEMNED_WHOLE</t>
   </si>
   <si>
-    <t>BIRD_WEIGHT_CONDEMNED_LB</t>
-  </si>
-  <si>
-    <t>BIRD_WEIGHT_CONDEMNED_KG</t>
+    <t>TIME_FRAME</t>
+  </si>
+  <si>
+    <t>TOTAL_MORTALITY</t>
   </si>
   <si>
     <t>PARTS_WEIGHT_CONDEMNED_LB</t>
@@ -102,10 +91,10 @@
     <t>PARTS_WEIGHT_CONDEMNED_KG</t>
   </si>
   <si>
-    <t>TOTAL_AMOUNT_PAID_USD</t>
-  </si>
-  <si>
-    <t>TOTAL_AMOUNT_PAID_USD_WEIGHT_LB</t>
+    <t>TOTAL_GROWER_PAY</t>
+  </si>
+  <si>
+    <t>AMOUNT_PAID_PER_POUND</t>
   </si>
   <si>
     <t>TOTAL_COST_USD_PER_WEIGHT_LB</t>
@@ -141,124 +130,124 @@
     <t>A_GRADE_PAWS_PERC</t>
   </si>
   <si>
-    <t>LAST_7_DAY_MORTALITY_PERC</t>
-  </si>
-  <si>
     <t>OUT_TIME_DAYS</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>1.009545645</t>
-  </si>
-  <si>
-    <t>1.0011545645</t>
-  </si>
-  <si>
-    <t>1.00125456</t>
-  </si>
-  <si>
-    <t>0.96855</t>
-  </si>
-  <si>
-    <t>0.0315</t>
-  </si>
-  <si>
-    <t>1.0013</t>
-  </si>
-  <si>
-    <t>54.675</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>9.50</t>
-  </si>
-  <si>
-    <t>1.85</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>1.001</t>
-  </si>
-  <si>
-    <t>0.0016</t>
-  </si>
-  <si>
-    <t>0.0017</t>
-  </si>
-  <si>
-    <t>1.0018</t>
+    <t>BIRD_SIZE</t>
+  </si>
+  <si>
+    <t>MARKETING_PROGRAM</t>
   </si>
   <si>
     <t>LRLBL0227-1033011</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>2022-02-02</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>2022-03-03</t>
+  </si>
+  <si>
+    <t>1001018</t>
+  </si>
+  <si>
+    <t>UNIQUE_FLOCK_ID</t>
+  </si>
+  <si>
+    <t>A02306</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1001184</t>
+  </si>
+  <si>
+    <t>1001001</t>
+  </si>
+  <si>
+    <t>1001008</t>
+  </si>
+  <si>
+    <t>1001012</t>
+  </si>
+  <si>
+    <t>1001015</t>
+  </si>
+  <si>
+    <t>1001019</t>
+  </si>
+  <si>
+    <t>1001017</t>
+  </si>
+  <si>
+    <t>1001043</t>
+  </si>
+  <si>
+    <t>1001052</t>
+  </si>
+  <si>
+    <t>1001159</t>
+  </si>
+  <si>
+    <t>1001188</t>
+  </si>
+  <si>
+    <t>1001186</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+  </si>
+  <si>
     <t>2021-06-10</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>2021-05-25</t>
-  </si>
-  <si>
-    <t>1001160</t>
-  </si>
-  <si>
-    <t>1001186</t>
-  </si>
-  <si>
-    <t>BIRD_SIZE</t>
-  </si>
-  <si>
-    <t>6/06/2021</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1001001</t>
-  </si>
-  <si>
-    <t>1001043</t>
-  </si>
-  <si>
-    <t>1001052</t>
-  </si>
-  <si>
-    <t>1001159</t>
-  </si>
-  <si>
-    <t>1001188</t>
-  </si>
-  <si>
-    <t>2021-06-01</t>
-  </si>
-  <si>
-    <t>2021-06-05</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>2021-12-12</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Conventional</t>
+  </si>
+  <si>
+    <t>No Antibiotics Ever</t>
+  </si>
+  <si>
+    <t>Organic</t>
+  </si>
+  <si>
+    <t>Pastured</t>
+  </si>
+  <si>
+    <t>2002006</t>
   </si>
 </sst>
 </file>
@@ -295,16 +284,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,280 +626,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM11" sqref="AM11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.796875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="7.796875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.796875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.796875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.796875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.796875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="8.796875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="10.796875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.8984375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" width="19.796875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="25.796875" collapsed="true"/>
-    <col min="15" max="16" customWidth="true" width="20.796875" collapsed="true"/>
-    <col min="17" max="19" customWidth="true" width="25.796875" collapsed="true"/>
-    <col min="20" max="21" customWidth="true" width="24.796875" collapsed="true"/>
-    <col min="22" max="23" customWidth="true" width="25.796875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="21.796875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="31.796875" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="15.796875" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="14.796875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="24.796875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="30.796875" collapsed="true"/>
-    <col min="31" max="32" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="3.796875" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="14.796875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="7.796875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="17.796875" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="27.3984375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="1" width="9.796875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="16.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.796875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.796875" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="19.796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="8.796875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.796875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.796875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="19.796875" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="25.796875" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" width="20.796875" collapsed="true"/>
+    <col min="18" max="20" customWidth="true" width="25.796875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="10.796875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="15.796875" collapsed="true"/>
+    <col min="23" max="24" customWidth="true" width="25.796875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="16.796875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="21.796875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="15.796875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="14.796875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="24.796875" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="30.796875" collapsed="true"/>
+    <col min="32" max="33" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="3.796875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="14.796875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="7.796875" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="17.796875" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="9.796875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="20.8984375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>63</v>
+      <c r="AN1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>58</v>
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
       </c>
       <c r="R2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
+        <v>42</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="X2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM2" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AN2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AL1" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:AN1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Excel/Flock Metadata.xlsx
+++ b/Excel/Flock Metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="80">
   <si>
     <t>FARM_SITE_ID</t>
   </si>
@@ -248,6 +248,18 @@
   </si>
   <si>
     <t>2002006</t>
+  </si>
+  <si>
+    <t>A02280</t>
+  </si>
+  <si>
+    <t>Pullet</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>​1​0​0​1​1​9​0​</t>
   </si>
 </sst>
 </file>
@@ -791,11 +803,11 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -816,7 +828,7 @@
         <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
         <v>41</v>
@@ -840,7 +852,7 @@
         <v>43</v>
       </c>
       <c r="AM2" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AN2" t="s">
         <v>47</v>

--- a/Excel/Flock Metadata.xlsx
+++ b/Excel/Flock Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEADF28E-89AC-49A4-BA98-C163A82BE18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F80DC1-EE05-4906-8084-2E7FACB92607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="540" windowWidth="18924" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>FARM_SITE_ID</t>
   </si>
@@ -154,9 +154,6 @@
     <t>40</t>
   </si>
   <si>
-    <t>Small</t>
-  </si>
-  <si>
     <t>2022-02-02</t>
   </si>
   <si>
@@ -169,87 +166,12 @@
     <t>2022-03-03</t>
   </si>
   <si>
-    <t>1001018</t>
-  </si>
-  <si>
     <t>UNIQUE_FLOCK_ID</t>
   </si>
   <si>
-    <t>A02306</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1001184</t>
-  </si>
-  <si>
-    <t>1001001</t>
-  </si>
-  <si>
-    <t>1001008</t>
-  </si>
-  <si>
-    <t>1001012</t>
-  </si>
-  <si>
-    <t>1001015</t>
-  </si>
-  <si>
-    <t>1001019</t>
-  </si>
-  <si>
-    <t>1001017</t>
-  </si>
-  <si>
-    <t>1001043</t>
-  </si>
-  <si>
-    <t>1001052</t>
-  </si>
-  <si>
-    <t>1001159</t>
-  </si>
-  <si>
-    <t>1001188</t>
-  </si>
-  <si>
     <t>1001186</t>
   </si>
   <si>
-    <t>2021-06-01</t>
-  </si>
-  <si>
-    <t>2021-06-10</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Conventional</t>
-  </si>
-  <si>
-    <t>No Antibiotics Ever</t>
-  </si>
-  <si>
-    <t>Organic</t>
-  </si>
-  <si>
-    <t>Pastured</t>
-  </si>
-  <si>
-    <t>2002006</t>
-  </si>
-  <si>
     <t>A02280</t>
   </si>
   <si>
@@ -257,16 +179,12 @@
   </si>
   <si>
     <t>50</t>
-  </si>
-  <si>
-    <t>​1​0​0​1​1​9​0​</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -641,48 +559,48 @@
   <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="16.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.796875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.796875" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="19.796875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.796875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.796875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="8.796875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.796875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.796875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" width="19.796875" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" width="25.796875" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" width="20.796875" collapsed="true"/>
-    <col min="18" max="20" customWidth="true" width="25.796875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="10.796875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="15.796875" collapsed="true"/>
-    <col min="23" max="24" customWidth="true" width="25.796875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="16.796875" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="21.796875" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="15.796875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="14.796875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="24.796875" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="30.796875" collapsed="true"/>
-    <col min="32" max="33" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="3.796875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="14.796875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="7.796875" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="17.796875" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="13.796875" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="9.796875" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="20.8984375" collapsed="true"/>
+    <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.796875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.796875" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="19.796875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.796875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.796875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.796875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.796875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.796875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.796875" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="19.796875" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="25.796875" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="20.796875" customWidth="1" collapsed="1"/>
+    <col min="18" max="20" width="25.796875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.796875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.796875" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="25.796875" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="16.796875" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="21.796875" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28.796875" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="15.796875" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="14.796875" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="24.796875" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="30.796875" customWidth="1" collapsed="1"/>
+    <col min="32" max="33" width="18.796875" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="3.796875" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="14.796875" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="7.796875" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="17.796875" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.796875" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="9.796875" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="20.8984375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -804,13 +722,13 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>1001077</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -819,16 +737,16 @@
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
         <v>41</v>
@@ -852,10 +770,10 @@
         <v>43</v>
       </c>
       <c r="AM2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Flock Metadata.xlsx
+++ b/Excel/Flock Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F80DC1-EE05-4906-8084-2E7FACB92607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1846A9-CDB4-460A-8873-0B7B992B2712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>FARM_SITE_ID</t>
   </si>
@@ -154,44 +154,52 @@
     <t>40</t>
   </si>
   <si>
-    <t>2022-02-02</t>
-  </si>
-  <si>
     <t>Mixed</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
-    <t>2022-03-03</t>
-  </si>
-  <si>
     <t>UNIQUE_FLOCK_ID</t>
   </si>
   <si>
     <t>1001186</t>
   </si>
   <si>
-    <t>A02280</t>
-  </si>
-  <si>
     <t>Pullet</t>
   </si>
   <si>
     <t>50</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>​1001160</t>
+  </si>
+  <si>
+    <t>A02780</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1C1C1D"/>
+      <name val="Heebo"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,9 +222,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,7 +568,7 @@
   <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -600,7 +609,7 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -720,15 +729,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2">
-        <v>1001077</v>
+    <row r="2" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -737,16 +746,16 @@
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
         <v>47</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>49</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="s">
         <v>41</v>
@@ -770,10 +779,10 @@
         <v>43</v>
       </c>
       <c r="AM2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AN2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Flock Metadata.xlsx
+++ b/Excel/Flock Metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1846A9-CDB4-460A-8873-0B7B992B2712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE70AFE-EDE5-4671-A714-5EDAE7562E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>FARM_SITE_ID</t>
   </si>
@@ -182,12 +182,67 @@
   </si>
   <si>
     <t>A02780</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>A02491</t>
+  </si>
+  <si>
+    <t>2022-02-02</t>
+  </si>
+  <si>
+    <t>2022-03-03</t>
+  </si>
+  <si>
+    <t>A02493</t>
+  </si>
+  <si>
+    <t>1001001</t>
+  </si>
+  <si>
+    <t>1001043</t>
+  </si>
+  <si>
+    <t>1001055</t>
+  </si>
+  <si>
+    <t>1001159</t>
+  </si>
+  <si>
+    <t>10011009</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Conventional</t>
+  </si>
+  <si>
+    <t>No Antibiotics Ever</t>
+  </si>
+  <si>
+    <t>Organic</t>
+  </si>
+  <si>
+    <t>Pastured</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -222,10 +277,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,176 +624,176 @@
   <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.796875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.796875" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="19.796875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.796875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.796875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.796875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.796875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.796875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.796875" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="19.796875" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="25.796875" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="20.796875" customWidth="1" collapsed="1"/>
-    <col min="18" max="20" width="25.796875" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.796875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.796875" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="25.796875" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="16.796875" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="21.796875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="28.796875" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.796875" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="14.796875" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="24.796875" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="30.796875" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="18.796875" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="3.796875" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="14.796875" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="7.796875" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="17.796875" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="13.796875" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="9.796875" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="20.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="16.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.796875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.796875" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="19.796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="8.796875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.796875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.796875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="19.796875" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="25.796875" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" width="20.796875" collapsed="true"/>
+    <col min="18" max="20" customWidth="true" width="25.796875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="10.796875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="15.796875" collapsed="true"/>
+    <col min="23" max="24" customWidth="true" width="25.796875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="16.796875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="21.796875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="15.796875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="14.796875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="24.796875" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="30.796875" collapsed="true"/>
+    <col min="32" max="33" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="3.796875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="14.796875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="7.796875" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="17.796875" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="9.796875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="20.8984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>53</v>
+      <c r="A2" t="s">
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -749,7 +805,7 @@
         <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
@@ -788,8 +844,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B1:AN1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Excel/Flock Metadata.xlsx
+++ b/Excel/Flock Metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="72">
   <si>
     <t>FARM_SITE_ID</t>
   </si>
@@ -790,7 +790,7 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>56</v>
